--- a/dataset/banchmark.xlsx
+++ b/dataset/banchmark.xlsx
@@ -26,51 +26,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="67">
   <si>
-    <t>Заинтересирана сум за UI/UX Дали предавањата ке се онлајн</t>
-  </si>
-  <si>
-    <t>Бидејќи програмите како Adobe се плајќаат дали се достапни со лиценца како дел од академијата UI/UX или ке биде потребно да се купат?</t>
-  </si>
-  <si>
-    <t>Zdravo povtorno jas  zainteresirana sum za akademijava za Software Testing Dali e potrebno prethodno pred znaenje?</t>
-  </si>
-  <si>
-    <t>Koga bi ja zapocnala akademijata dali mi e potreben laptop i koi specifikacii bi trebalo da gi ima za akademijava za Software Testing?</t>
-  </si>
-  <si>
-    <t>dali znaete vo koi denovi bi bile predavanjata za akademijava za Software Testing</t>
-  </si>
-  <si>
-    <t>ме интересира дали академијата за UX/UI design онаа која е достапна со ваучер</t>
-  </si>
-  <si>
-    <t>Добро утро, би сакал да се информирам за UX/UI академијата е иста со времетраење и темелност како претходната што почна?</t>
-  </si>
-  <si>
-    <t>колку места се останати за оваа во август за UX/UI</t>
-  </si>
-  <si>
-    <t>кога почнува за UX/UI</t>
-  </si>
-  <si>
     <t>кога е пријавувањето за UX/UI академијата?</t>
   </si>
   <si>
-    <t>Bi sakala da prasam dali site obuki koi ke zapocnat vo septemvri ke se odrzuvaat online?</t>
-  </si>
-  <si>
-    <t>zdravo, dali moze da mi objasnite na sto potocno se odnesuva data science</t>
-  </si>
-  <si>
-    <t>dali se dobiva nekoj sertifikat za zavrsenata akademija za data science</t>
-  </si>
-  <si>
-    <t>dali vazi za vo stranstvo akademijata za data science</t>
-  </si>
-  <si>
-    <t>Здраво, би сакала да се информирам повеќе за UX/UI академијата што ја имате, но не можам да го отворам сајтот.</t>
-  </si>
-  <si>
     <t>Ме интересира каква е програмата за UX/UI академијата</t>
   </si>
   <si>
@@ -83,84 +41,18 @@
     <t>дали има можност можност за добивање на стипендија за UX/UI академијата и тој линк не ми го отвара за жал</t>
   </si>
   <si>
-    <t>Здраво. Со каква звање (диплома) се стекнуваме после завршувањето на академијата full stack?</t>
-  </si>
-  <si>
     <t>Каде е признаена таа диплома за академијата full stack?</t>
   </si>
   <si>
     <t>Дали имаме обезбедена пракса со можност за вработување од академијата за full stack?</t>
   </si>
   <si>
-    <t xml:space="preserve">zdravo,sakam da se zapisam na digitalen marketing od septemvri. </t>
-  </si>
-  <si>
-    <t>Kako ke se odviva nastavata za marketing</t>
-  </si>
-  <si>
-    <t>dali se uste ima mesto za marketing</t>
-  </si>
-  <si>
     <t>Здраво, би сакал да се запишам на академијата за графички дизајн.</t>
   </si>
   <si>
-    <t>Zdravo dali moze da mi dadete info kolku kosta akademijata za Data Science?</t>
-  </si>
-  <si>
-    <t>koga bi pocnala Data Science akademijata?</t>
-  </si>
-  <si>
-    <t>dali akademijata ke bide online za Data Science?</t>
-  </si>
-  <si>
-    <t>kolku pati nedelno se odviva i kolku saati za Data Science?</t>
-  </si>
-  <si>
-    <t>Sertifikatot kolku e priznaen za Data Science?</t>
-  </si>
-  <si>
-    <t>dali posle kursot pravite preporaki na firmi za Data Science?</t>
-  </si>
-  <si>
-    <t>do koga e krajniot rok za apliciranje na frontend akademijata za programiranje?</t>
-  </si>
-  <si>
-    <t>Zdravo aplicirav za akademijata za software testing me intersira dali vi stasala mojata aplikacija</t>
-  </si>
-  <si>
     <t>Ме интересира дали по завршување студентите можат да работат во странство, поточно Германија?</t>
   </si>
   <si>
-    <t>zdravo za it programer dali treba da znaes angliski pri ucenje za pocetnik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">me interesiraat podetalni informacii za akademijata za Software testing, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">za akademija za Software kako bi se odvivale chasovite (dali ke bidat fleksibilni), </t>
-  </si>
-  <si>
-    <t>kako da apliciram za Software</t>
-  </si>
-  <si>
-    <t>dali ima plakanje na rati za Software</t>
-  </si>
-  <si>
-    <t>Zdravo, kje ve molam za informacija za cena na akademijata za digitalen marketing?</t>
-  </si>
-  <si>
-    <t>Do koga moze da se prijavime za Data Science akademijata</t>
-  </si>
-  <si>
-    <t>Dali postoo moznost za stipendija za data science?</t>
-  </si>
-  <si>
-    <t>Dobar den Dali predavanjata se na angliski jazik?</t>
-  </si>
-  <si>
-    <t>Kade se odvivaat predavanjata, samo online ili imate ucilnici?</t>
-  </si>
-  <si>
     <t>Колку чини академијата за програмирање?</t>
   </si>
   <si>
@@ -225,6 +117,114 @@
   </si>
   <si>
     <t>full-stack програмирање</t>
+  </si>
+  <si>
+    <t>Дали предавањата ќе се онлајн за UI/UX</t>
+  </si>
+  <si>
+    <t>Дали на академијата за UI/UX програмите како Adobe кои се плајќаат се достапни со лиценца или ќе биде потребно да се купат?</t>
+  </si>
+  <si>
+    <t>Дали на академијата за Software Testing е потребно претходно знаење</t>
+  </si>
+  <si>
+    <t>Дали ми е потребен лаптоп и кои спецификации би требало да има за академијата за Software Testing?</t>
+  </si>
+  <si>
+    <t>Кои денови би биле предавањата за академијата за Software Testing</t>
+  </si>
+  <si>
+    <t>Дали академијата за UX/UI е достапна со ваучер</t>
+  </si>
+  <si>
+    <t>Дали академијата за UX/UI е со времетраење и темелност како претходната?</t>
+  </si>
+  <si>
+    <t>колку места се останати за академијата за UX/UI</t>
+  </si>
+  <si>
+    <t>кога почнува академијата за UX/UI</t>
+  </si>
+  <si>
+    <t>Дали обуките кои ќе започнат во септември ќе се одржуваат онлине</t>
+  </si>
+  <si>
+    <t>дали може да ми кажете на што поточно се однесува академијата за Data Science</t>
+  </si>
+  <si>
+    <t>Дали се добива некој сертификат за завршена академија за Data Science?</t>
+  </si>
+  <si>
+    <t>Дали важи во странство академијата за Data Science</t>
+  </si>
+  <si>
+    <t>Би сакала да се информирам повеќе за UX/UI академијата</t>
+  </si>
+  <si>
+    <t>Со каква звање (диплома) се стекнуваме после завршувањето на академијата full stack?</t>
+  </si>
+  <si>
+    <t>Сакам да се запишам на академијата за дигитален маркетинг?</t>
+  </si>
+  <si>
+    <t>Каде се одвива наставата за маркетинг</t>
+  </si>
+  <si>
+    <t>Дали сеуште има место на маркетинг</t>
+  </si>
+  <si>
+    <t>Дали може да ми дадете инфо колку кошта академијата за Data Science</t>
+  </si>
+  <si>
+    <t>Кога би почнала академијата за Data Science</t>
+  </si>
+  <si>
+    <t>Дали академијата ќе биде онлине за Дата Сајанс</t>
+  </si>
+  <si>
+    <t>Колку пати неделно се одвива и колку саати за Data Science?</t>
+  </si>
+  <si>
+    <t>Сертификатот колку е признаен за Data Science?</t>
+  </si>
+  <si>
+    <t>Дали после академијата правите препораки на фирми за Data Science?</t>
+  </si>
+  <si>
+    <t>До кога е крајниот рок за аплицирање на frontend академијата за програмирање?</t>
+  </si>
+  <si>
+    <t>Аплицирав за академијата за Software testing ме интересира дали стасала мојата апликација</t>
+  </si>
+  <si>
+    <t>Дали за ИТ програмер треба да знаеш англиски при учење за почетник</t>
+  </si>
+  <si>
+    <t>Ме интересираат подетални информации за академијата за Software testing</t>
+  </si>
+  <si>
+    <t>за академијата за Software testing кога би се одвивале часовите (дали ќе бидат флексибилни)</t>
+  </si>
+  <si>
+    <t>како да аплицирам за Software testing</t>
+  </si>
+  <si>
+    <t>Дали има плаќање на рати на академијата за Software testing</t>
+  </si>
+  <si>
+    <t>Ќе ве замолам за информација за цена на академијата за дигитален маркетинг</t>
+  </si>
+  <si>
+    <t>До кога може да се пријавиме за Data Science академијата</t>
+  </si>
+  <si>
+    <t>Дали постои можност за стипендија на Data Science академијата</t>
+  </si>
+  <si>
+    <t>Дали предавањата се на англиски</t>
+  </si>
+  <si>
+    <t>Дали предавањата се одвиваат онлине или имате училници</t>
   </si>
 </sst>
 </file>
@@ -545,7 +545,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -554,21 +556,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>7</v>
@@ -576,10 +578,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -587,10 +589,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -598,10 +600,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -609,10 +611,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -620,10 +622,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -631,10 +633,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -642,10 +644,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -653,10 +655,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>7</v>
@@ -664,10 +666,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -675,10 +677,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -686,10 +688,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -697,10 +699,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -708,10 +710,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -719,10 +721,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -730,10 +732,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -741,10 +743,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -752,10 +754,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -763,10 +765,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -774,10 +776,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -785,10 +787,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -796,10 +798,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -807,10 +809,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -818,10 +820,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -829,10 +831,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
         <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>60</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -840,10 +842,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
         <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>61</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -851,10 +853,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" t="s">
         <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>62</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -862,10 +864,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -873,10 +875,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -884,10 +886,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -895,10 +897,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -906,10 +908,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -917,10 +919,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -928,10 +930,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -939,10 +941,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -950,10 +952,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -961,10 +963,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -972,10 +974,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -983,10 +985,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -994,10 +996,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -1005,10 +1007,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1016,10 +1018,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -1027,10 +1029,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -1038,10 +1040,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1049,10 +1051,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1060,10 +1062,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1071,10 +1073,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1082,10 +1084,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1093,10 +1095,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1104,10 +1106,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1115,10 +1117,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1126,10 +1128,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1137,10 +1139,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1148,10 +1150,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B55" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1159,10 +1161,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B56" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1170,10 +1172,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="C57">
         <v>2</v>
